--- a/模拟/data/相关性分析数据.xlsx
+++ b/模拟/data/相关性分析数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BD2C8-2F6E-4C16-8A7E-53130966F8BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8A269-A0B3-41C5-A7F1-65F283CE9124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2412" windowWidth="17280" windowHeight="8964" xr2:uid="{C640E374-A462-4553-B4C9-671ACE64CDEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C640E374-A462-4553-B4C9-671ACE64CDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>谋杀率（每10万人故意杀人案件的数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>..0.000%</t>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD800B-5D03-4A4D-AFFE-E4237C6EF90F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -565,6 +569,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
@@ -651,7 +658,7 @@
         <v>0.08</v>
       </c>
       <c r="E3" s="4">
-        <v>89</v>
+        <v>0.89</v>
       </c>
       <c r="F3" s="4">
         <v>3.8999999999999998E-3</v>

--- a/模拟/data/相关性分析数据.xlsx
+++ b/模拟/data/相关性分析数据.xlsx
@@ -1,86 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8A269-A0B3-41C5-A7F1-65F283CE9124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C640E374-A462-4553-B4C9-671ACE64CDEB}"/>
+    <workbookView windowWidth="12855" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>贫困线以下人口比例</t>
+  </si>
   <si>
     <t>谋杀率（每10万人故意杀人案件的数量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5岁以下儿童死亡率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 初等教育净入学率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 人口增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二氧化碳排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>森林覆盖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受保护的海洋面积比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所使用的水资源总量的比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人均GDP占世界比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活垃圾回收率</t>
   </si>
   <si>
     <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14.34%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（全球占比）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
   </si>
   <si>
     <t>日本</t>
@@ -95,6 +70,9 @@
     <t>英国</t>
   </si>
   <si>
+    <t>瑞士</t>
+  </si>
+  <si>
     <t>泰国</t>
   </si>
   <si>
@@ -102,51 +80,25 @@
   </si>
   <si>
     <t>西班牙</t>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贫困线以下人口比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活垃圾回收率</t>
-  </si>
-  <si>
-    <t>..0.000%</t>
-  </si>
-  <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,44 +106,373 @@
       <sz val="9"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202122"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF50595E"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,9 +480,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -209,42 +732,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,26 +893,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,23 +928,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,470 +1069,454 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD800B-5D03-4A4D-AFFE-E4237C6EF90F}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.2166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5583333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="26.1083333333333" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.125</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>4.7</v>
       </c>
-      <c r="D2" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.93637999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.30840000000000001</v>
+      <c r="D2" s="1">
+        <v>0.066</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.93638</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.006</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.1434</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.3084</v>
       </c>
       <c r="I2" s="1">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="J2" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>0.4625</v>
       </c>
       <c r="K2" s="1">
-        <v>5.5018000000000002</v>
-      </c>
-      <c r="L2" s="4">
+        <v>5.709</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3.3000000000000002E-2</v>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.033</v>
       </c>
       <c r="C3">
         <v>0.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0.08</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.89</v>
       </c>
-      <c r="F3" s="4">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="1">
+        <v>0.0039</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2951</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.2296</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5.7089999999999996</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="I3" s="1">
+        <v>0.03766</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.1243</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.897</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.16</v>
       </c>
       <c r="C4">
         <v>0.35</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.03</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-2.3E-3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="E4" s="1">
+        <v>0.964</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.0023</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0347</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.67</v>
       </c>
-      <c r="I4" s="4">
-        <v>3.7659999999999999E-2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="I4" s="1">
+        <v>0.00493</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1923</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.13600000000000001</v>
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.136</v>
       </c>
       <c r="C5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E5" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.031</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.96</v>
       </c>
-      <c r="F5" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.24E-2</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="1">
+        <v>0.013</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0124</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.19</v>
       </c>
-      <c r="I5" s="4">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.1923</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3.52</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="I5" s="1">
+        <v>0.40653</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.2047</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.42222</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.219</v>
       </c>
       <c r="C6">
         <v>2.8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.34</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.92</v>
       </c>
-      <c r="F6" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.24679999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.40653</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.20469999999999999</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5.4222200000000003</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="F6" s="1">
+        <v>0.011</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0681</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2468</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.00171</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.07359</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.186</v>
       </c>
       <c r="C7">
         <v>5.78</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.04</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.99</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.11E-2</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="1">
+        <v>0.0058</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0111</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.1176</v>
       </c>
-      <c r="I7" s="4">
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7.3590000000000003E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.184</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="I7" s="1">
+        <v>0.20235</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1164</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.14599999999999999</v>
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.146</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>0.04</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>0.93</v>
       </c>
-      <c r="F8" s="4">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="1">
+        <v>0.0083</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0374</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.308</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.20235</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.1164</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.4245</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.30201</v>
+      </c>
+      <c r="L8" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9.9000000000000005E-2</v>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.099</v>
       </c>
       <c r="C9">
-        <v>3.3069999999999999</v>
-      </c>
-      <c r="D9" s="4">
+        <v>3.307</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.09</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>0.98</v>
       </c>
-      <c r="F9" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.42449999999999999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>8.3020099999999992</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="F9" s="1">
+        <v>0.0022</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0077</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.01881</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.04779</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.683</v>
+      </c>
+      <c r="L9" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.187</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>6.7200000000000003E-3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.881E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4.7789999999999999E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="F10" s="1">
+        <v>0.0104</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0176</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.00672</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.00804</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.05491</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.58296</v>
+      </c>
+      <c r="L10" s="1">
         <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.21099999999999999</v>
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.211</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>0.03</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>0.97</v>
       </c>
-      <c r="F11" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="1">
+        <v>0.0003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0073</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.32</v>
       </c>
-      <c r="I11" s="4">
-        <v>8.0400000000000003E-3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5.491E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.58296000000000003</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="I11" s="1">
+        <v>0.0872</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.1516</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.56599</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="I12" s="4">
-        <v>8.72E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.15160000000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>3.5659900000000002</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/模拟/data/相关性分析数据.xlsx
+++ b/模拟/data/相关性分析数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8A269-A0B3-41C5-A7F1-65F283CE9124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB3609-289C-4062-B147-74431DFC61FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C640E374-A462-4553-B4C9-671ACE64CDEB}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -987,15 +987,9 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="I12" s="4">
-        <v>8.72E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.15160000000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>3.5659900000000002</v>
-      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/模拟/data/相关性分析数据.xlsx
+++ b/模拟/data/相关性分析数据.xlsx
@@ -1,86 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB3609-289C-4062-B147-74431DFC61FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C640E374-A462-4553-B4C9-671ACE64CDEB}"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>贫困线以下人口比例</t>
+  </si>
   <si>
     <t>谋杀率（每10万人故意杀人案件的数量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5岁以下儿童死亡率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 初等教育净入学率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 人口增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二氧化碳排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>森林覆盖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受保护的海洋面积比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所使用的水资源总量的比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人均GDP占世界比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活垃圾回收率</t>
   </si>
   <si>
     <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14.34%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（全球占比）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
   </si>
   <si>
     <t>日本</t>
@@ -95,6 +70,9 @@
     <t>英国</t>
   </si>
   <si>
+    <t>瑞士</t>
+  </si>
+  <si>
     <t>泰国</t>
   </si>
   <si>
@@ -104,49 +82,26 @@
     <t>西班牙</t>
   </si>
   <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贫困线以下人口比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活垃圾回收率</t>
-  </si>
-  <si>
-    <t>..0.000%</t>
-  </si>
-  <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>巴基斯坦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,44 +109,379 @@
       <sz val="9"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202122"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF50595E"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,52 +489,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,26 +908,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,23 +943,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,464 +1084,492 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD800B-5D03-4A4D-AFFE-E4237C6EF90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.2166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5583333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="26.1083333333333" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.125</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>4.7</v>
       </c>
-      <c r="D2" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.93637999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.30840000000000001</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5.5018000000000002</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="D2" s="1">
+        <v>0.066</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.93638</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.006</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.1434</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.3084</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.263</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4e-5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5.5018</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3.3000000000000002E-2</v>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.033</v>
       </c>
       <c r="C3">
         <v>0.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0.08</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.89</v>
       </c>
-      <c r="F3" s="4">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="1">
+        <v>0.0039</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2951</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.2296</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5.7089999999999996</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="I3" s="1">
+        <v>0.263</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.4625</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.709</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.16</v>
       </c>
       <c r="C4">
         <v>0.35</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.03</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-2.3E-3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="E4" s="1">
+        <v>0.964</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.0023</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0347</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.67</v>
       </c>
-      <c r="I4" s="4">
-        <v>3.7659999999999999E-2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="I4" s="1">
+        <v>0.03766</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1243</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.897</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.13600000000000001</v>
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.136</v>
       </c>
       <c r="C5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E5" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.031</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.96</v>
       </c>
-      <c r="F5" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.24E-2</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="1">
+        <v>0.013</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0124</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.19</v>
       </c>
-      <c r="I5" s="4">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="1">
+        <v>0.00493</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.1923</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>3.52</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.219</v>
       </c>
       <c r="C6">
         <v>2.8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.34</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.92</v>
       </c>
-      <c r="F6" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.24679999999999999</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="F6" s="1">
+        <v>0.011</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0681</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2468</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.40653</v>
       </c>
-      <c r="J6" s="4">
-        <v>0.20469999999999999</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5.4222200000000003</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="J6" s="1">
+        <v>0.2047</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.42222</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.186</v>
       </c>
       <c r="C7">
         <v>5.78</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.04</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.99</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.11E-2</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="1">
+        <v>0.0058</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0111</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.1176</v>
       </c>
-      <c r="I7" s="4">
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7.3590000000000003E-2</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I7" s="1">
+        <v>0.00171</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.07359</v>
+      </c>
+      <c r="K7" s="1">
         <v>0.184</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.14599999999999999</v>
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.146</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>0.04</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>0.93</v>
       </c>
-      <c r="F8" s="4">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="1">
+        <v>0.0083</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0374</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.308</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>0.20235</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>0.1164</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>3.7</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9.9000000000000005E-2</v>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.099</v>
       </c>
       <c r="C9">
-        <v>3.3069999999999999</v>
-      </c>
-      <c r="D9" s="4">
+        <v>3.307</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.09</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>0.98</v>
       </c>
-      <c r="F9" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.42449999999999999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>8.3020099999999992</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="F9" s="1">
+        <v>0.0022</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0077</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.4245</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8.30201</v>
+      </c>
+      <c r="L9" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.187</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>6.7200000000000003E-3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.881E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4.7789999999999999E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="F10" s="1">
+        <v>0.0104</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0176</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.00672</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.01881</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.04779</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.683</v>
+      </c>
+      <c r="L10" s="1">
         <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.21099999999999999</v>
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.211</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>0.03</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>0.97</v>
       </c>
-      <c r="F11" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="1">
+        <v>0.0003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0073</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.32</v>
       </c>
-      <c r="I11" s="4">
-        <v>8.0400000000000003E-3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5.491E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.58296000000000003</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="I11" s="1">
+        <v>0.00804</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.05491</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.58296</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.2158</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.03883</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.694</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.94328</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.021</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.0042</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.0177</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.007665</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.0445</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.1491576037433</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.03</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>